--- a/data/income_statement/2digits/size/60_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/60_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>60-Programming and broadcasting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>60-Programming and broadcasting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>374684.31041</v>
+        <v>409178.79273</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>401301.7405900001</v>
+        <v>429859.85186</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>528805.3226699999</v>
+        <v>495697.91504</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>505890.74069</v>
+        <v>450655.6859399999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>655026.5037</v>
+        <v>602781.6049200001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>608851.6853199999</v>
+        <v>553243.9691900001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>805508.49257</v>
+        <v>779034.2756500001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>667461.52549</v>
+        <v>770842.7412899999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>811822.10754</v>
+        <v>842955.1753800001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1016452.4508</v>
+        <v>1030109.30144</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1331233.99245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1380082.71183</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1417714.888</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>365848.51966</v>
+        <v>400165.62479</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>388591.13265</v>
+        <v>417678.01479</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>516204.95456</v>
+        <v>484322.75382</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>490612.90236</v>
+        <v>440089.72318</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>618581.9281799999</v>
+        <v>566234.21644</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>559553.33773</v>
+        <v>504830.60913</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>751835.60347</v>
+        <v>729537.3746399999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>598051.2925499999</v>
+        <v>699667.08352</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>737655.69898</v>
+        <v>775378.3762899999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>916099.94239</v>
+        <v>929832.8275</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1202270.14356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1252711.48221</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1255308.197</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1268.44425</v>
+        <v>1256.52806</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>1534.09845</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2788.03327</v>
+        <v>2783.53362</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3861.76995</v>
+        <v>1929.30006</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>21842.73683</v>
@@ -1049,151 +965,171 @@
         <v>32359.10987</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>50655.02351</v>
+        <v>53259.62841</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>59565.50278</v>
+        <v>54497.4999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>84868.14877</v>
+        <v>84951.56185</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>113078.72665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>111678.07797</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>124436.202</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7567.3465</v>
+        <v>7756.639880000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11176.50949</v>
+        <v>10647.73862</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9812.33484</v>
+        <v>8591.6276</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11416.06838</v>
+        <v>8636.662699999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>14601.83869</v>
+        <v>14704.65165</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26723.55205</v>
+        <v>25838.56452</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>21313.77923</v>
+        <v>17137.79114</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>18755.20943</v>
+        <v>17916.02936</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>14600.90578</v>
+        <v>13079.29919</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>15484.35964</v>
+        <v>15324.91209</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>15885.12224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15693.15165</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>37970.489</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1537.11077</v>
+        <v>1598.73279</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5399.584609999999</v>
+        <v>5470.905849999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5705.37918</v>
+        <v>5459.71279</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10809.66111</v>
+        <v>10125.90608</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16149.63916</v>
+        <v>15193.19845</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>15952.72973</v>
+        <v>12722.74508</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15367.10675</v>
+        <v>14843.97418</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>22893.09789</v>
+        <v>25230.88836</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>29946.16298</v>
+        <v>29129.34072</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>36437.34983</v>
+        <v>34139.0583</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>51237.85627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>58227.38082</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>82086.959</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1448.15015</v>
+        <v>1508.7761</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3804.62764</v>
+        <v>3880.52616</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3621.45958</v>
+        <v>3379.66552</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>843.6384399999999</v>
+        <v>648.8874299999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3290.97638</v>
+        <v>2334.53567</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10387.36923</v>
+        <v>7157.38458</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6905.477599999999</v>
+        <v>6805.69965</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10952.86346</v>
+        <v>14167.59982</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>14958.11232</v>
+        <v>15340.09624</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>27168.3127</v>
+        <v>25242.2596</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>30752.00265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>35883.88179</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>68755.678</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>88.96062000000001</v>
+        <v>89.95669000000001</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>0.14352</v>
+        <v>0</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>530.45739</v>
+        <v>41.45337</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>1882.21793</v>
@@ -1202,34 +1138,39 @@
         <v>242.5</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1736.14219</v>
+        <v>1628.71614</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2501.03977</v>
+        <v>2269.89434</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3606.3199</v>
+        <v>2819.79829</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1728.76382</v>
+        <v>1509.40589</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3497.82486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3153.66959</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3441.503</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1594.95697</v>
+        <v>1590.37969</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2083.77608</v>
+        <v>2080.04727</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>9435.565280000001</v>
@@ -1241,103 +1182,118 @@
         <v>5322.8605</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6725.486960000001</v>
+        <v>6409.55839</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>9439.194660000001</v>
+        <v>8793.394199999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>11381.73076</v>
+        <v>10969.44619</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7540.27331</v>
+        <v>7387.392809999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>16988.02876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19189.82944</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9889.778</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>373147.19964</v>
+        <v>407580.05994</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>395902.15598</v>
+        <v>424388.94601</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>523099.94349</v>
+        <v>490238.20225</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>495081.07958</v>
+        <v>440529.77986</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>638876.86454</v>
+        <v>587588.40647</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>592898.95559</v>
+        <v>540521.2241100001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>790141.3858200001</v>
+        <v>764190.3014700001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>644568.4276000001</v>
+        <v>745611.8529300001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>781875.94456</v>
+        <v>813825.8346600001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>980015.10097</v>
+        <v>995970.24314</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1279996.13618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1321855.33101</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1335627.929</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>336414.8687</v>
+        <v>366474.3433300001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>295385.95393</v>
+        <v>345537.1677</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>459908.4738200001</v>
+        <v>428725.81063</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>470479.12559</v>
+        <v>421268.56144</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>576429.95956</v>
+        <v>534761.30473</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>535864.1967099999</v>
+        <v>486631.23665</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>746984.2321899999</v>
+        <v>720881.05301</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>593910.0730600001</v>
+        <v>631952.62928</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>687422.63637</v>
+        <v>719138.7980399999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>884234.204</v>
+        <v>930197.7260499999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1085886.57241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1145661.68004</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1094534.111</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>77.48591</v>
@@ -1352,19 +1308,19 @@
         <v>7130.07237</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>14926.84186</v>
+        <v>14654.30644</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>97393.46323000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>0</v>
+        <v>27793.23722</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>204.6</v>
+        <v>0</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>1512.47523</v>
@@ -1372,38 +1328,43 @@
       <c r="M15" s="48" t="n">
         <v>8618.505499999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>7805.741</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>546.03112</v>
+        <v>17075.82497</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>862.4563499999999</v>
+        <v>19552.64538</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>299.55572</v>
+        <v>14.70461</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>89.71411999999999</v>
+        <v>76.85858</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6907.51512</v>
+        <v>6679.13585</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>9145.555859999999</v>
+        <v>8241.0434</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4728.97076</v>
+        <v>4472.56025</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3033.59448</v>
+        <v>278.00194</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1860.15023</v>
+        <v>39596.44438</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>125113.12793</v>
@@ -1411,56 +1372,66 @@
       <c r="M16" s="48" t="n">
         <v>113472.45208</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>105262.398</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>283618.01838</v>
+        <v>297147.69916</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>294483.53662</v>
+        <v>325965.46312</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>456359.46371</v>
+        <v>425461.65163</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>456828.4197199999</v>
+        <v>407630.71111</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>550727.57803</v>
+        <v>509573.77864</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>429245.21485</v>
+        <v>380932.45109</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>742205.0365599999</v>
+        <v>688565.03067</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>590861.13564</v>
+        <v>631659.2844</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>684830.12569</v>
+        <v>679014.5932100001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>757406.14225</v>
+        <v>803369.6642999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>963795.61483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1023570.72246</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>981465.972</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>52173.33329</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>39.96096</v>
+        <v>19.0592</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>3249.45439</v>
@@ -1469,10 +1440,10 @@
         <v>6430.91938</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3868.02455</v>
+        <v>3854.0838</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>79.96277000000001</v>
+        <v>64.27893</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>50.22487</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>36732.33094000001</v>
+        <v>41105.71661</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>100516.20205</v>
+        <v>78851.77831000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>63191.46967</v>
+        <v>61512.39161999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>24601.95399</v>
+        <v>19261.21842</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>62446.90498</v>
+        <v>52827.10174</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>57034.75887999999</v>
+        <v>53889.98746</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>43157.15363</v>
+        <v>43309.24846</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>50658.35454</v>
+        <v>113659.22365</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>94453.30819</v>
+        <v>94687.03662</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>95780.89697</v>
+        <v>65772.51708999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>194109.56377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>176193.65097</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>241093.818</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>125653.32839</v>
+        <v>159275.18032</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>123605.45661</v>
+        <v>146796.58443</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>144410.16862</v>
+        <v>147871.51397</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>149333.95114</v>
+        <v>143077.9334</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>187797.63109</v>
+        <v>184210.7631</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>147770.87358</v>
+        <v>136553.5173</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>190150.13001</v>
+        <v>196220.09674</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>148433.21914</v>
+        <v>158031.2911</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>169332.11263</v>
+        <v>146151.9881</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>268321.70689</v>
+        <v>250949.86817</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>290309.05218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>287269.78793</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>300153.108</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>43416.11087</v>
+        <v>43933.07221</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>44303.13932</v>
+        <v>49157.98386</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>42498.75466000001</v>
+        <v>40600.28176</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>42637.97295</v>
+        <v>37674.03641</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>45789.96709000001</v>
+        <v>40104.21840000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>32322.44668</v>
+        <v>23395.46792</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>51340.22903</v>
+        <v>49888.60648</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>50594.76747</v>
+        <v>48730.57218</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>49731.51926</v>
+        <v>53332.93801000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>69163.63009000001</v>
+        <v>73585.58673</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>82329.23884999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>74796.42545000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>107077.78</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>82237.21752000001</v>
+        <v>115342.10811</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>79302.31728999999</v>
+        <v>97638.60057</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>101911.41396</v>
+        <v>107271.23221</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>106249.04069</v>
+        <v>104956.95949</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>141798.06312</v>
+        <v>143896.94382</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>115447.20769</v>
+        <v>113156.83017</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>138809.90098</v>
+        <v>146331.49026</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>97838.45166999999</v>
+        <v>109300.71892</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>119600.59337</v>
+        <v>92819.05009</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>199158.0768</v>
+        <v>177364.28144</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>207979.81333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>212473.36248</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>193075.328</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-88920.99745</v>
+        <v>-118169.46371</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-23089.25456</v>
+        <v>-67944.80612000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-81218.69895000001</v>
+        <v>-86359.12234999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-124731.99715</v>
+        <v>-123816.71498</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-125350.72611</v>
+        <v>-131383.66136</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-90736.11470000001</v>
+        <v>-82663.52984</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-146992.97638</v>
+        <v>-152910.84828</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-97774.86460000002</v>
+        <v>-44372.06745</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-74878.80444000001</v>
+        <v>-51464.95148</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-172540.80992</v>
+        <v>-185177.35108</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-96199.48840999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-111076.13696</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-59059.29</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>23030.91765</v>
+        <v>43676.65635</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>22622.03329</v>
+        <v>43273.97208</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>29770.88394</v>
+        <v>32977.30932</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>20900.81286</v>
+        <v>22160.10358</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>41190.49157</v>
+        <v>37890.31551</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>37764.81318</v>
+        <v>43237.17596</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>60283.89691</v>
+        <v>60469.61698999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>31555.41222</v>
+        <v>110949.53575</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>119840.4712</v>
+        <v>110384.49657</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>352615.16577</v>
+        <v>434290.38798</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>462790.82236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>932544.25421</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>482473.868</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>107.72368</v>
@@ -1781,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>869.0355400000001</v>
+        <v>733.40934</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2051.00371</v>
+        <v>790.9044299999999</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>360.19552</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>1250</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4524.166270000001</v>
+        <v>10855.94536</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2002.49418</v>
+        <v>3076.39686</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3066.35922</v>
+        <v>2987.47619</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1069.83093</v>
+        <v>804.76884</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5620.50363</v>
+        <v>4096.82258</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6346.995629999999</v>
+        <v>4182.806219999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9202.429050000001</v>
+        <v>7517.638029999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8419.687679999999</v>
+        <v>6601.745609999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13750.69727</v>
+        <v>8966.69636</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30115.53638</v>
+        <v>16570.43408</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>59462.73105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>42234.83114</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18166.212</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>410.85653</v>
@@ -1892,7 +1918,7 @@
         <v>460.39208</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>59.249</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>0</v>
@@ -1913,82 +1939,92 @@
         <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2080.22303</v>
+        <v>8076.17697</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0.12715</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5945.88606</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7173.846</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>214.2578</v>
+        <v>16.72643</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>22.31959</v>
+        <v>28.82981</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>238.12558</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>256.40464</v>
+        <v>232.81484</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>113.0544</v>
+        <v>116.19511</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>947.16649</v>
+        <v>951.24649</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>615.56696</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>207.51313</v>
+        <v>232.91576</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>959.4941900000001</v>
+        <v>188.55767</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>15002.89167</v>
+        <v>14991.09167</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>25649.60377</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>25601.12451</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>16843.789</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1089.85823</v>
+        <v>1097.45716</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>19.37006</v>
+        <v>20.49504</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>70.30642</v>
+        <v>31.61228</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>622.3575</v>
+        <v>403.61216</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>204.72585</v>
+        <v>47.33546</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>534.2500500000001</v>
+        <v>147.14834</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>400.39551</v>
+        <v>401.15547</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>691.79347</v>
+        <v>403.01127</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>441.41706</v>
+        <v>170.6487</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>0.3036</v>
@@ -1996,62 +2032,72 @@
       <c r="M31" s="48" t="n">
         <v>9.276629999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>181339.397</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>9595.028600000001</v>
+        <v>19307.60429</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>10564.37845</v>
+        <v>10298.59787</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>13710.76573</v>
+        <v>23414.52438</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>5795.55355</v>
+        <v>14685.0783</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>24298.02782</v>
+        <v>25591.76517</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>14833.9296</v>
+        <v>25731.65526</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>31034.53</v>
+        <v>33354.48449</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9977.686210000002</v>
+        <v>16647.99823</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>82715.63867</v>
+        <v>82696.90505</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>258587.96198</v>
+        <v>332785.02066</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>366012.93671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>805842.18319</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>196507.147</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>277.22895</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>440.41749</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>342.98138</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>129.28155</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2099,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>11.235</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>258.207</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6811.79759</v>
+        <v>11880.3429</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9112.661310000001</v>
+        <v>29389.26029</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12115.67661</v>
+        <v>6138.150890000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>13027.38469</v>
+        <v>6033.82944</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>10085.14433</v>
+        <v>7304.78785</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>12083.75403</v>
+        <v>10465.70155</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>18659.54487</v>
+        <v>18220.57652</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11858.73173</v>
+        <v>86663.86487999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>21973.22401</v>
+        <v>18361.68879</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>45861.49991000001</v>
+        <v>60900.61180000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10406.14705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>51660.95268</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>60435.27</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>9188.11709</v>
+        <v>19033.69472</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>9960.879540000002</v>
+        <v>12398.3826</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>18714.20412</v>
+        <v>36098.29914</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8710.56717</v>
+        <v>11023.49263</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>35220.76493</v>
+        <v>47281.98548999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>28939.61254</v>
+        <v>36637.15231</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>38243.65942</v>
+        <v>43596.41811</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16873.21574</v>
+        <v>114886.97632</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>84324.63413999999</v>
+        <v>87427.24709999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>336673.80384</v>
+        <v>419468.28038</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>413244.3024</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>860148.61576</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>436888.768</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>356.39532</v>
+        <v>248.53426</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>10.04485</v>
+        <v>548.2109300000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>53.91002</v>
+        <v>8.078109999999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1892.90473</v>
+        <v>1475.85213</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2956.44036</v>
+        <v>2933.24376</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1774.313</v>
+        <v>1677.4141</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3675.79416</v>
+        <v>5782.35704</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2766.49963</v>
+        <v>3325.43215</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2260.2227</v>
+        <v>2520.476099999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3653.85779</v>
+        <v>6238.224969999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3437.07127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6143.03374</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9260.931</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>704.6817199999999</v>
+        <v>950.81917</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>480.37621</v>
+        <v>613.8520500000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>666.50539</v>
+        <v>488.23099</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2050.90852</v>
+        <v>934.9349999999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2457.13062</v>
+        <v>2682.97755</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6559.243280000001</v>
+        <v>6576.94328</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>3251.99516</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3237.15066</v>
+        <v>3382.21716</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1154.62618</v>
+        <v>1276.54021</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>31544.84595</v>
+        <v>31534.01142</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>24375.49265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>24356.67858</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>33679.363</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>5.48906</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7618.028469999999</v>
+        <v>17200.11924</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9429.30235</v>
+        <v>10805.35833</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>17298.7887</v>
+        <v>34955.38189</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3855.96428</v>
+        <v>8481.427699999998</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>29636.14791</v>
+        <v>41593.83728</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>17168.98997</v>
+        <v>26543.24755</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>29940.03275</v>
+        <v>33260.47347999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10787.91619</v>
+        <v>17487.95078</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>80346.41889</v>
+        <v>83055.732</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>300528.9699500001</v>
+        <v>380761.07876</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>384615.92104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>829416.98939</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>393354.18</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2363,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>47.77267</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2250.51918</v>
+        <v>653.41522</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>509.01158</v>
+        <v>634.2220500000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>41.11297999999999</v>
+        <v>430.9181399999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>695.00001</v>
+        <v>646.60815</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>863.01697</v>
+        <v>131.2778</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>171.04604</v>
+        <v>71.92689999999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1186.53407</v>
+        <v>1186.11912</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1375.83735</v>
+        <v>1301.59243</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>77.79333</v>
+        <v>90687.5203</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>563.36637</v>
+        <v>574.49879</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>946.1301500000001</v>
+        <v>934.96523</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>810.32838</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>226.42499</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>594.294</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>11948.73843</v>
+        <v>14327.01155</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11469.49853</v>
+        <v>13854.95821</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>25860.5931</v>
+        <v>17535.39595</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>18989.38695</v>
+        <v>20213.39057</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>13515.29651</v>
+        <v>21652.599</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>23849.86097</v>
+        <v>33205.79046</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>31284.68813</v>
+        <v>30401.83036</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>31569.15826</v>
+        <v>21789.87833</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>70343.76303999999</v>
+        <v>30555.17919</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>42883.64235</v>
+        <v>39150.89226000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>52453.51594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>44370.48415</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>13970.934</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11494.46205</v>
+        <v>8572.368719999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>11469.49853</v>
+        <v>13854.95821</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>25855.48676</v>
+        <v>17530.28961</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>18989.38695</v>
+        <v>20213.39057</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>13515.29651</v>
+        <v>21652.599</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>23666.52856</v>
+        <v>33205.79046</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>31049.05203</v>
+        <v>30401.83036</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>31321.3774</v>
+        <v>21782.21373</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>69492.34913</v>
+        <v>30113.41728</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>39035.80045</v>
+        <v>37900.26211</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>51950.18837</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>43867.15658</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>13301.635</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>454.27638</v>
+        <v>5754.64283</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>0</v>
@@ -2564,223 +2675,253 @@
         <v>0</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>183.33241</v>
+        <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>235.6361</v>
+        <v>0</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>247.78086</v>
+        <v>7.6646</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>851.4139099999999</v>
+        <v>441.76191</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3847.8419</v>
+        <v>1250.63015</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>503.32757</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>669.299</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-87026.93532</v>
+        <v>-107853.51363</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-21897.59934</v>
+        <v>-50924.17485</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-96022.61223</v>
+        <v>-107015.50812</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-131531.13841</v>
+        <v>-132893.4946</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-132896.29598</v>
+        <v>-162427.93034</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-105760.77503</v>
+        <v>-109269.29665</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-156237.42702</v>
+        <v>-166439.47976</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-114661.82638</v>
+        <v>-70099.38635000002</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-109706.73042</v>
+        <v>-59062.8812</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-199483.09034</v>
+        <v>-209506.13574</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-99106.48439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-83050.98265999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-27445.124</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4979.55199</v>
+        <v>6656.643190000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1254.08587</v>
+        <v>2620.34097</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5717.98168</v>
+        <v>5575.733220000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5115.8334</v>
+        <v>4170.1466</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>26372.51496</v>
+        <v>24845.2551</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>24081.38083</v>
+        <v>4679.98575</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>17952.68324</v>
+        <v>16474.48017</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>7539.155110000001</v>
+        <v>8996.640219999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>10217.4066</v>
+        <v>9960.14473</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5850.31376</v>
+        <v>5822.26228</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>15244.28841</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>11947.73773</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>14551.455</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>35.58412999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>108.54519</v>
+        <v>118.04712</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>8.950049999999999</v>
+        <v>3.36775</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>14.55079</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1.92392</v>
+        <v>0</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>31.73677</v>
+        <v>28.08116</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>238.33216</v>
+        <v>238.30496</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>40.81432</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>119.2204</v>
+        <v>95.01740000000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>329.96389</v>
+        <v>290.3957</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>443.98763</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>757.3709</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2.665</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4943.967860000001</v>
+        <v>6621.05906</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1145.54068</v>
+        <v>2502.29385</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5709.031629999999</v>
+        <v>5572.365470000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5101.282609999999</v>
+        <v>4155.59581</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>26370.59104</v>
+        <v>24845.2551</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>24049.64406</v>
+        <v>4651.904590000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17714.35108</v>
+        <v>16236.17521</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>7498.34079</v>
+        <v>8955.8259</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>10098.1862</v>
+        <v>9865.127329999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5520.34987</v>
+        <v>5531.86658</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>14800.30078</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>11190.36683</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>14548.79</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2078.79969</v>
+        <v>1954.05295</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2159.79152</v>
+        <v>5024.22217</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>23510.60203</v>
+        <v>16719.14463</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>14312.11058</v>
+        <v>12914.6695</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17244.97681</v>
+        <v>15954.60244</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12257.1335</v>
+        <v>9853.140650000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20071.88402</v>
+        <v>18088.02672</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>17474.22357</v>
+        <v>12562.02238</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6209.50913</v>
+        <v>6431.193179999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>43064.36531</v>
+        <v>36662.06432</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>19057.27897</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>16211.27545</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13891.207</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>53.57482</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>613.7535899999999</v>
+        <v>972.85488</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>96.59313</v>
+        <v>207.91556</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>523.1196600000001</v>
+        <v>195.39575</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>278.82588</v>
+        <v>152.76434</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>918.2359299999999</v>
+        <v>453.45368</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1075.98518</v>
+        <v>528.6513200000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1444.16111</v>
+        <v>333.682</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>261.37327</v>
+        <v>506.4573199999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>125.32801</v>
+        <v>74.75587000000002</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7178.5942</v>
+        <v>457.07777</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2440.11651</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2471.22798</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2748.086</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1411.47128</v>
+        <v>927.62325</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2063.19839</v>
+        <v>4816.306610000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>22987.48237</v>
+        <v>16523.74888</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>14033.2847</v>
+        <v>12761.90516</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>16326.74088</v>
+        <v>15501.14876</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>11181.14832</v>
+        <v>9324.48933</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>18627.72291</v>
+        <v>17754.34472</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>17212.8503</v>
+        <v>12055.56506</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>6084.18112</v>
+        <v>6356.43731</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>35885.77111</v>
+        <v>36204.98654999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>16617.16246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>13740.04747</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>11143.121</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-84126.18302000001</v>
+        <v>-103150.92339</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-22803.30499</v>
+        <v>-53328.05605000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-113815.23258</v>
+        <v>-118158.91953</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-140727.41559</v>
+        <v>-141638.0175</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-123768.75783</v>
+        <v>-153537.27768</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-93936.52770000001</v>
+        <v>-114442.45155</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-158356.6278</v>
+        <v>-168053.02631</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-124596.89484</v>
+        <v>-73664.76851000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-105698.83295</v>
+        <v>-55533.92965</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-236697.14189</v>
+        <v>-240345.93778</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-102919.47495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-87314.52038</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-26784.876</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>960.3685</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1920.8267</v>
+        <v>1310.38068</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3546.20982</v>
+        <v>2581.67424</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4482.921560000001</v>
+        <v>2553.08454</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3204.99967</v>
+        <v>2091.28179</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7914.354490000001</v>
+        <v>7408.21175</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7878.719129999999</v>
+        <v>5763.75438</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3713.20879</v>
+        <v>4981.137</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>6166.639970000001</v>
+        <v>5595.58571</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3171.95667</v>
+        <v>764.2714999999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5994.48916</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6145.111199999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>8189.042</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-85086.55151999999</v>
+        <v>-104111.29189</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-24724.13169</v>
+        <v>-54638.43673</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-117361.4424</v>
+        <v>-120740.59377</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-145210.33715</v>
+        <v>-144191.10204</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-126973.7575</v>
+        <v>-155628.55947</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-101850.88219</v>
+        <v>-121850.6633</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-166235.34693</v>
+        <v>-173816.78069</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-128310.10363</v>
+        <v>-78645.90551</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-111865.47292</v>
+        <v>-61129.51536</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-239869.09856</v>
+        <v>-241110.20928</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-108913.96411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-93459.63158</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-34973.918</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>37</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>